--- a/Gestión/Chamados.xlsx
+++ b/Gestión/Chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B47803-1589-4376-84E9-E6BC0DA7767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB232B5-E8E1-47BB-90DD-991C40A7724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BEC59C68-A0B8-478C-97A3-BF1B7E4370AA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tickets Chamados" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tickets Chamados'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tickets Chamados'!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
   <si>
     <t>#</t>
   </si>
@@ -506,15 +506,6 @@
     <t>En el pitstop no está para verificar, adicional, el error se sigue presentando. Cerrar el chamado y crear outro para los nombres, Testearlo</t>
   </si>
   <si>
-    <t>Se encuentra disponibilizado el script desde el dia 05/04/2022.</t>
-  </si>
-  <si>
-    <t>coordinar com Fernando Tonezer Frantz para que pueda testearlo</t>
-  </si>
-  <si>
-    <t>Se solucionara para el dia 28/04/2022, com Willian de Andrade Valer</t>
-  </si>
-  <si>
     <t>Esta realizando las pruebas para verificar</t>
   </si>
   <si>
@@ -546,6 +537,42 @@
   </si>
   <si>
     <t>Se envio uma propuesta el dia 11/04/2022 de como manejarlo, pero el dia 18/04/2022 comentaron que no era factible de esse modo, actualmente se busca um metodo mejor para poder mostrarlo. Testearlo. Grabarlo solo se puede com Elaboración y Revisión.</t>
+  </si>
+  <si>
+    <t>Se solucionara para el dia 10/05/2022, com Willian de Andrade Valer</t>
+  </si>
+  <si>
+    <t>CHAMADO-25847</t>
+  </si>
+  <si>
+    <t>CHAMADO: Error en permisos de Document Manager</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>CHAMADO-25878</t>
+  </si>
+  <si>
+    <t>CHAMADO: Solicitud de informe de mapas de calor con nivel de riesgo ponderado</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>CHAMADO-25887</t>
+  </si>
+  <si>
+    <t>CHAMADO: Error integración proveedores</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>CHAMADO-25889</t>
+  </si>
+  <si>
+    <t>CHAMADO: Error al cargar imagen en dashboard</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19BB2A0-9498-42F0-8345-91870BAB855C}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1904,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="10">
+        <v>44679</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="10">
+        <v>44680</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="10">
+        <v>44683</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="10">
+        <v>44683</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1885,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CEF358-FD89-46F4-B668-DD0A1FE49407}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +2059,7 @@
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F40" ca="1" si="0">NOW()-D2-1</f>
-        <v>148.90474490740598</v>
+        <v>149.82658483795967</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>136</v>
@@ -1984,13 +2091,13 @@
       </c>
       <c r="F3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>129.90474490740598</v>
+        <v>130.82658483795967</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,13 +2123,13 @@
       </c>
       <c r="F4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>107.90474490740598</v>
+        <v>108.82658483795967</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,13 +2155,13 @@
       </c>
       <c r="F5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>106.90474490740598</v>
+        <v>107.82658483795967</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,13 +2187,13 @@
       </c>
       <c r="F6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>101.90474490740598</v>
+        <v>102.82658483795967</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,7 +2219,7 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>89.904744907405984</v>
+        <v>90.826584837959672</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>136</v>
@@ -2144,7 +2251,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>89.904744907405984</v>
+        <v>90.826584837959672</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>136</v>
@@ -2176,13 +2283,13 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>78.904744907405984</v>
+        <v>79.826584837959672</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2208,13 +2315,13 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>74.904744907405984</v>
+        <v>75.826584837959672</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2240,13 +2347,13 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>67.904744907405984</v>
+        <v>68.826584837959672</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,13 +2379,13 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>60.904744907405984</v>
+        <v>61.826584837959672</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>138</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,7 +2411,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>59.904744907405984</v>
+        <v>60.826584837959672</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>136</v>
@@ -2336,7 +2443,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>52.904744907405984</v>
+        <v>53.826584837959672</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>136</v>
@@ -2368,13 +2475,13 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>52.904744907405984</v>
+        <v>53.826584837959672</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2400,13 +2507,13 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>50.904744907405984</v>
+        <v>51.826584837959672</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,7 +2539,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>36.904744907405984</v>
+        <v>37.826584837959672</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2458,7 +2565,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>33.904744907405984</v>
+        <v>34.826584837959672</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>138</v>
@@ -2490,7 +2597,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>32.904744907405984</v>
+        <v>33.826584837959672</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
@@ -2522,7 +2629,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>29.904744907405984</v>
+        <v>30.826584837959672</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>24</v>
@@ -2554,7 +2661,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>26.904744907405984</v>
+        <v>27.826584837959672</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>136</v>
@@ -2586,7 +2693,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>26.904744907405984</v>
+        <v>27.826584837959672</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>136</v>
@@ -2618,7 +2725,7 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>26.904744907405984</v>
+        <v>27.826584837959672</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -2648,13 +2755,13 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>25.904744907405984</v>
+        <v>26.826584837959672</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2680,7 +2787,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>24.904744907405984</v>
+        <v>25.826584837959672</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>138</v>
@@ -2712,7 +2819,7 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.904744907405984</v>
+        <v>24.826584837959672</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>24</v>
@@ -2744,7 +2851,7 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>19.904744907405984</v>
+        <v>20.826584837959672</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>92</v>
@@ -2776,13 +2883,13 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.904744907405984</v>
+        <v>19.826584837959672</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2808,7 +2915,7 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>17.904744907405984</v>
+        <v>18.826584837959672</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>48</v>
@@ -2840,7 +2947,7 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.904744907405984</v>
+        <v>13.826584837959672</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>48</v>
@@ -2872,13 +2979,13 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.904744907405984</v>
+        <v>13.826584837959672</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2904,13 +3011,13 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.904744907405984</v>
+        <v>13.826584837959672</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.25">
@@ -2936,13 +3043,13 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.904744907405984</v>
+        <v>13.826584837959672</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2968,7 +3075,7 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.904744907405984</v>
+        <v>11.826584837959672</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>24</v>
@@ -2998,7 +3105,7 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.904744907405984</v>
+        <v>11.826584837959672</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>10</v>
@@ -3028,7 +3135,7 @@
       </c>
       <c r="F36" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.904744907405984</v>
+        <v>11.826584837959672</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>10</v>
@@ -3058,7 +3165,7 @@
       </c>
       <c r="F37" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9047449074059841</v>
+        <v>9.8265848379596719</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>124</v>
@@ -3090,7 +3197,7 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9047449074059841</v>
+        <v>9.8265848379596719</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>10</v>
@@ -3120,7 +3227,7 @@
       </c>
       <c r="F39" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9047449074059841</v>
+        <v>6.8265848379596719</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>48</v>
@@ -3150,7 +3257,7 @@
       </c>
       <c r="F40" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9047449074059841</v>
+        <v>6.8265848379596719</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>136</v>
@@ -3182,7 +3289,7 @@
       </c>
       <c r="F41" s="7">
         <f ca="1">NOW()-D41-1</f>
-        <v>5.9047449074059841</v>
+        <v>6.8265848379596719</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>136</v>
@@ -3214,7 +3321,7 @@
       </c>
       <c r="F42" s="7">
         <f t="shared" ref="F42:F44" ca="1" si="1">NOW()-D42-1</f>
-        <v>4.9047449074059841</v>
+        <v>5.8265848379596719</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>136</v>
@@ -3246,7 +3353,7 @@
       </c>
       <c r="F43" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9047449074059841</v>
+        <v>5.8265848379596719</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>136</v>
@@ -3256,36 +3363,120 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="3" t="str">
         <f>'Total Tickets'!A44</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="str">
         <f>'Total Tickets'!C44</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
+        <v>CHAMADO-25847</v>
+      </c>
+      <c r="C44" s="3" t="str">
         <f>'Total Tickets'!D44</f>
-        <v>0</v>
+        <v>CHAMADO: Error en permisos de Document Manager</v>
       </c>
       <c r="D44" s="5">
         <f>'Total Tickets'!E44</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
+        <v>44679</v>
+      </c>
+      <c r="E44" s="3" t="str">
         <f>'Total Tickets'!F44</f>
-        <v>0</v>
+        <v>Jaramillo Mora</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44681.904744907406</v>
+        <v>3.8265848379596719</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="str">
+        <f>'Total Tickets'!D45</f>
+        <v>CHAMADO: Solicitud de informe de mapas de calor con nivel de riesgo ponderado</v>
+      </c>
+      <c r="D45" s="5">
+        <f>'Total Tickets'!E45</f>
+        <v>44680</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f>'Total Tickets'!F45</f>
+        <v>Jaramillo Mora</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" ref="F45:F48" ca="1" si="2">NOW()-D45-1</f>
+        <v>2.8265848379596719</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="str">
+        <f>'Total Tickets'!D46</f>
+        <v>CHAMADO: Error integración proveedores</v>
+      </c>
+      <c r="D46" s="5">
+        <f>'Total Tickets'!E46</f>
+        <v>44683</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f>'Total Tickets'!F46</f>
+        <v>Jaramillo Mora</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.17341516204032814</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="str">
+        <f>'Total Tickets'!D47</f>
+        <v>CHAMADO: Error al cargar imagen en dashboard</v>
+      </c>
+      <c r="D47" s="5">
+        <f>'Total Tickets'!E47</f>
+        <v>44683</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f>'Total Tickets'!F47</f>
+        <v>Jaramillo Mora</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.17341516204032814</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <f>'Total Tickets'!D48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <f>'Total Tickets'!E48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <f>'Total Tickets'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>44682.82658483796</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{08CEF358-FD89-46F4-B668-DD0A1FE49407}"/>
+  <autoFilter ref="A1:H44" xr:uid="{08CEF358-FD89-46F4-B668-DD0A1FE49407}"/>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Este llamado se ha convertido a BUG para solucionar el problema, va demorar um poco em su solución">
       <formula>NOT(ISERROR(SEARCH("Este llamado se ha convertido a BUG para solucionar el problema, va demorar um poco em su solución",H1)))</formula>
@@ -3337,7 +3528,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F2:F44</xm:sqref>
+          <xm:sqref>F2:F48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
